--- a/Code/Results/Cases/Case_0_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_183/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1856570335643255</v>
+        <v>0.05088209513382935</v>
       </c>
       <c r="D2">
-        <v>0.3723656935937214</v>
+        <v>0.09244243276017983</v>
       </c>
       <c r="E2">
-        <v>1.865122236947997</v>
+        <v>0.4343060183838787</v>
       </c>
       <c r="F2">
-        <v>7.675014725063306</v>
+        <v>2.285403960572268</v>
       </c>
       <c r="G2">
-        <v>9.330031984135701</v>
+        <v>2.564910388463545</v>
       </c>
       <c r="H2">
-        <v>4.441929826917601</v>
+        <v>1.534877293481372</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1555495605540642</v>
+        <v>0.04499111415226764</v>
       </c>
       <c r="D3">
-        <v>0.3089892477857603</v>
+        <v>0.08099312179224682</v>
       </c>
       <c r="E3">
-        <v>1.539646095811008</v>
+        <v>0.3774527995275889</v>
       </c>
       <c r="F3">
-        <v>6.418561741040406</v>
+        <v>2.053156900224678</v>
       </c>
       <c r="G3">
-        <v>7.793352809598446</v>
+        <v>2.275893840270044</v>
       </c>
       <c r="H3">
-        <v>3.720254712603207</v>
+        <v>1.407448340504004</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1382228387078044</v>
+        <v>0.04140688078128107</v>
       </c>
       <c r="D4">
-        <v>0.2730514608945214</v>
+        <v>0.07402400667483278</v>
       </c>
       <c r="E4">
-        <v>1.356603117254537</v>
+        <v>0.3428124898187264</v>
       </c>
       <c r="F4">
-        <v>5.69937582916296</v>
+        <v>1.912316711634247</v>
       </c>
       <c r="G4">
-        <v>6.913810774261663</v>
+        <v>2.100249222090611</v>
       </c>
       <c r="H4">
-        <v>3.308036719111726</v>
+        <v>1.330500229916026</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1313866347393287</v>
+        <v>0.03995402274648541</v>
       </c>
       <c r="D5">
-        <v>0.2589740262936147</v>
+        <v>0.07119808863352262</v>
       </c>
       <c r="E5">
-        <v>1.28518083764574</v>
+        <v>0.3287567351206917</v>
       </c>
       <c r="F5">
-        <v>5.41640048247578</v>
+        <v>1.855343698008113</v>
       </c>
       <c r="G5">
-        <v>6.567720490010629</v>
+        <v>2.02910102924011</v>
       </c>
       <c r="H5">
-        <v>3.146034036310539</v>
+        <v>1.299455806609899</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1302634292936489</v>
+        <v>0.03971322982907566</v>
       </c>
       <c r="D6">
-        <v>0.2566664384985557</v>
+        <v>0.07072966030467853</v>
       </c>
       <c r="E6">
-        <v>1.273487696358728</v>
+        <v>0.3264262411716601</v>
       </c>
       <c r="F6">
-        <v>5.369949113613984</v>
+        <v>1.845908133199885</v>
       </c>
       <c r="G6">
-        <v>6.510906626696624</v>
+        <v>2.017312013859168</v>
       </c>
       <c r="H6">
-        <v>3.11945166844248</v>
+        <v>1.294319414592678</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1381298093369878</v>
+        <v>0.04138725633642082</v>
       </c>
       <c r="D7">
-        <v>0.2728595107490435</v>
+        <v>0.07398584006757858</v>
       </c>
       <c r="E7">
-        <v>1.35562822159946</v>
+        <v>0.3426226931926806</v>
       </c>
       <c r="F7">
-        <v>5.695522049674338</v>
+        <v>1.911546679905854</v>
       </c>
       <c r="G7">
-        <v>6.909097563859177</v>
+        <v>2.099287993742507</v>
       </c>
       <c r="H7">
-        <v>3.305829686465984</v>
+        <v>1.330080305065678</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1749884425046559</v>
+        <v>0.048843750634461</v>
       </c>
       <c r="D8">
-        <v>0.3497678933747324</v>
+        <v>0.08848133144697101</v>
       </c>
       <c r="E8">
-        <v>1.748657329297231</v>
+        <v>0.4146432302580934</v>
       </c>
       <c r="F8">
-        <v>7.228795062564899</v>
+        <v>2.204946202125285</v>
       </c>
       <c r="G8">
-        <v>8.784259182292601</v>
+        <v>2.46486445801628</v>
       </c>
       <c r="H8">
-        <v>4.185425429329086</v>
+        <v>1.490663432560325</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2611180137486997</v>
+        <v>0.06375108278027142</v>
       </c>
       <c r="D9">
-        <v>0.5371928614723771</v>
+        <v>0.117447993817521</v>
       </c>
       <c r="E9">
-        <v>2.730680537778397</v>
+        <v>0.5583251547865729</v>
       </c>
       <c r="F9">
-        <v>10.86485668809593</v>
+        <v>2.79532394359515</v>
       </c>
       <c r="G9">
-        <v>13.23418239251333</v>
+        <v>3.197443359351439</v>
       </c>
       <c r="H9">
-        <v>6.281527845297887</v>
+        <v>1.816439590657353</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3456838580965496</v>
+        <v>0.07491319404149976</v>
       </c>
       <c r="D10">
-        <v>0.7351308135606018</v>
+        <v>0.1391449197427335</v>
       </c>
       <c r="E10">
-        <v>3.819470607789597</v>
+        <v>0.6658540739310013</v>
       </c>
       <c r="F10">
-        <v>14.52539878896567</v>
+        <v>3.239773343520341</v>
       </c>
       <c r="G10">
-        <v>17.72492545868812</v>
+        <v>3.747132436533263</v>
       </c>
       <c r="H10">
-        <v>8.404622702938411</v>
+        <v>2.063304805149755</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3980420118974308</v>
+        <v>0.08004481728909241</v>
       </c>
       <c r="D11">
-        <v>0.8676665612977104</v>
+        <v>0.1491249759868936</v>
       </c>
       <c r="E11">
-        <v>4.592486907723483</v>
+        <v>0.7153062832119872</v>
       </c>
       <c r="F11">
-        <v>16.85601590184098</v>
+        <v>3.444639034242755</v>
       </c>
       <c r="G11">
-        <v>20.59348190552004</v>
+        <v>4.00012231043263</v>
       </c>
       <c r="H11">
-        <v>9.76336324738088</v>
+        <v>2.177445210765768</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4231354611998768</v>
+        <v>0.0819964595482503</v>
       </c>
       <c r="D12">
-        <v>0.9349635266791836</v>
+        <v>0.1529216098639381</v>
       </c>
       <c r="E12">
-        <v>5.003785645136759</v>
+        <v>0.7341187954332895</v>
       </c>
       <c r="F12">
-        <v>17.99756797957895</v>
+        <v>3.522631409936196</v>
       </c>
       <c r="G12">
-        <v>22.00218203121028</v>
+        <v>4.096380848006049</v>
       </c>
       <c r="H12">
-        <v>10.43111721448628</v>
+        <v>2.22094871134567</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4173358787643906</v>
+        <v>0.08157575385052951</v>
       </c>
       <c r="D13">
-        <v>0.9191510461839414</v>
+        <v>0.1521031369487673</v>
       </c>
       <c r="E13">
-        <v>4.905805274816188</v>
+        <v>0.73006321326136</v>
       </c>
       <c r="F13">
-        <v>17.73203521504905</v>
+        <v>3.505815472973211</v>
       </c>
       <c r="G13">
-        <v>21.67425952887112</v>
+        <v>4.075628964692498</v>
       </c>
       <c r="H13">
-        <v>10.2756516245737</v>
+        <v>2.211566688482378</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3999515256688966</v>
+        <v>0.08020520773034434</v>
       </c>
       <c r="D14">
-        <v>0.8726898726376078</v>
+        <v>0.1494369692640305</v>
       </c>
       <c r="E14">
-        <v>4.622695309273553</v>
+        <v>0.7168522236950423</v>
       </c>
       <c r="F14">
-        <v>16.94224411874637</v>
+        <v>3.451047047003783</v>
       </c>
       <c r="G14">
-        <v>20.69979558221996</v>
+        <v>4.008032199225568</v>
       </c>
       <c r="H14">
-        <v>9.81374849213347</v>
+        <v>2.181018542013135</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3902093851949218</v>
+        <v>0.07936682344221424</v>
       </c>
       <c r="D15">
-        <v>0.8472159673237059</v>
+        <v>0.147806179020904</v>
       </c>
       <c r="E15">
-        <v>4.47025973268903</v>
+        <v>0.708771583954217</v>
       </c>
       <c r="F15">
-        <v>16.50332312364185</v>
+        <v>3.417554602524831</v>
       </c>
       <c r="G15">
-        <v>20.15878349670976</v>
+        <v>3.96668777174574</v>
       </c>
       <c r="H15">
-        <v>9.557364994811849</v>
+        <v>2.162344012835035</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3426998232096139</v>
+        <v>0.07457897080197995</v>
       </c>
       <c r="D16">
-        <v>0.7278435312695137</v>
+        <v>0.1384950473253639</v>
       </c>
       <c r="E16">
-        <v>3.778150520437094</v>
+        <v>0.6626338051535754</v>
       </c>
       <c r="F16">
-        <v>14.39428815338979</v>
+        <v>3.226441281925361</v>
       </c>
       <c r="G16">
-        <v>17.56380450096202</v>
+        <v>3.73066093909091</v>
       </c>
       <c r="H16">
-        <v>8.32835464875177</v>
+        <v>2.055883877073825</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.318101566237857</v>
+        <v>0.07165604684527693</v>
       </c>
       <c r="D17">
-        <v>0.6687008749165955</v>
+        <v>0.1328122544848327</v>
       </c>
       <c r="E17">
-        <v>3.446655229063168</v>
+        <v>0.6344734356464699</v>
       </c>
       <c r="F17">
-        <v>13.31946438139778</v>
+        <v>3.109906547216184</v>
       </c>
       <c r="G17">
-        <v>16.24382005051393</v>
+        <v>3.586641909769185</v>
       </c>
       <c r="H17">
-        <v>7.703764019330777</v>
+        <v>1.991056810500083</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3050143135131265</v>
+        <v>0.0699798932133433</v>
       </c>
       <c r="D18">
-        <v>0.6378613649224292</v>
+        <v>0.1295539192347519</v>
       </c>
       <c r="E18">
-        <v>3.27631857507825</v>
+        <v>0.6183263086667239</v>
       </c>
       <c r="F18">
-        <v>12.75163408125033</v>
+        <v>3.043129669826271</v>
       </c>
       <c r="G18">
-        <v>15.54704098242564</v>
+        <v>3.504079926245197</v>
       </c>
       <c r="H18">
-        <v>7.374245859442965</v>
+        <v>1.95394218506118</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3007313759132444</v>
+        <v>0.06941322161699759</v>
       </c>
       <c r="D19">
-        <v>0.6278565927000841</v>
+        <v>0.1284524172932606</v>
       </c>
       <c r="E19">
-        <v>3.221401727223764</v>
+        <v>0.6128674879011555</v>
       </c>
       <c r="F19">
-        <v>12.56636860820163</v>
+        <v>3.020562399879083</v>
       </c>
       <c r="G19">
-        <v>15.31978163825113</v>
+        <v>3.476171866273489</v>
       </c>
       <c r="H19">
-        <v>7.266801051581581</v>
+        <v>1.941404895010123</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3206012647579541</v>
+        <v>0.0719666713361562</v>
       </c>
       <c r="D20">
-        <v>0.674638861993003</v>
+        <v>0.1334161246627446</v>
       </c>
       <c r="E20">
-        <v>3.47964260672876</v>
+        <v>0.63746592009241</v>
       </c>
       <c r="F20">
-        <v>13.42822632158277</v>
+        <v>3.122285708113651</v>
       </c>
       <c r="G20">
-        <v>16.37732370930178</v>
+        <v>3.601944379440454</v>
       </c>
       <c r="H20">
-        <v>7.766915220539204</v>
+        <v>1.997939824818161</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4048466400159185</v>
+        <v>0.08060753682967459</v>
       </c>
       <c r="D21">
-        <v>0.8856373130680311</v>
+        <v>0.1502196021049826</v>
       </c>
       <c r="E21">
-        <v>4.700906088006477</v>
+        <v>0.7207302043796489</v>
       </c>
       <c r="F21">
-        <v>17.1637502713329</v>
+        <v>3.467122389459746</v>
       </c>
       <c r="G21">
-        <v>20.97296542569842</v>
+        <v>4.027874326515303</v>
       </c>
       <c r="H21">
-        <v>9.943219625902771</v>
+        <v>2.189983512906053</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4048466400159185</v>
+        <v>0.08630417082480335</v>
       </c>
       <c r="D22">
-        <v>0.8856373130680311</v>
+        <v>0.1613038644017593</v>
       </c>
       <c r="E22">
-        <v>4.700906088006477</v>
+        <v>0.7756540621339951</v>
       </c>
       <c r="F22">
-        <v>17.1637502713329</v>
+        <v>3.694921204907018</v>
       </c>
       <c r="G22">
-        <v>20.97296542569842</v>
+        <v>4.308923702799973</v>
       </c>
       <c r="H22">
-        <v>9.943219625902771</v>
+        <v>2.317141151680062</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4048466400159185</v>
+        <v>0.08325903397782497</v>
       </c>
       <c r="D23">
-        <v>0.8856373130680311</v>
+        <v>0.1553780927343666</v>
       </c>
       <c r="E23">
-        <v>4.700906088006477</v>
+        <v>0.7462908648888202</v>
       </c>
       <c r="F23">
-        <v>17.1637502713329</v>
+        <v>3.573108878531798</v>
       </c>
       <c r="G23">
-        <v>20.97296542569842</v>
+        <v>4.158665295903404</v>
       </c>
       <c r="H23">
-        <v>9.943219625902771</v>
+        <v>2.249118535815228</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4048466400159185</v>
+        <v>0.07182622473997924</v>
       </c>
       <c r="D24">
-        <v>0.8856373130680311</v>
+        <v>0.1331430877323783</v>
       </c>
       <c r="E24">
-        <v>4.700906088006477</v>
+        <v>0.6361128857112135</v>
       </c>
       <c r="F24">
-        <v>17.1637502713329</v>
+        <v>3.116688404811185</v>
       </c>
       <c r="G24">
-        <v>20.97296542569842</v>
+        <v>3.595025398961468</v>
       </c>
       <c r="H24">
-        <v>9.943219625902771</v>
+        <v>1.994827531493968</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4048466400159185</v>
+        <v>0.05968409346859005</v>
       </c>
       <c r="D25">
-        <v>0.8856373130680311</v>
+        <v>0.1095451899372506</v>
       </c>
       <c r="E25">
-        <v>4.700906088006477</v>
+        <v>0.5191453392989445</v>
       </c>
       <c r="F25">
-        <v>17.1637502713329</v>
+        <v>2.633846868522511</v>
       </c>
       <c r="G25">
-        <v>20.97296542569842</v>
+        <v>2.997389641847974</v>
       </c>
       <c r="H25">
-        <v>9.943219625902771</v>
+        <v>1.727054494182937</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_183/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05088209513382935</v>
+        <v>0.1856570335648939</v>
       </c>
       <c r="D2">
-        <v>0.09244243276017983</v>
+        <v>0.3723656935942472</v>
       </c>
       <c r="E2">
-        <v>0.4343060183838787</v>
+        <v>1.865122236947983</v>
       </c>
       <c r="F2">
-        <v>2.285403960572268</v>
+        <v>7.675014725063392</v>
       </c>
       <c r="G2">
-        <v>2.564910388463545</v>
+        <v>9.330031984135644</v>
       </c>
       <c r="H2">
-        <v>1.534877293481372</v>
+        <v>4.441929826917487</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04499111415226764</v>
+        <v>0.1555495605535384</v>
       </c>
       <c r="D3">
-        <v>0.08099312179224682</v>
+        <v>0.3089892477853766</v>
       </c>
       <c r="E3">
-        <v>0.3774527995275889</v>
+        <v>1.539646095811037</v>
       </c>
       <c r="F3">
-        <v>2.053156900224678</v>
+        <v>6.418561741040349</v>
       </c>
       <c r="G3">
-        <v>2.275893840270044</v>
+        <v>7.793352809598446</v>
       </c>
       <c r="H3">
-        <v>1.407448340504004</v>
+        <v>3.72025471260315</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04140688078128107</v>
+        <v>0.1382228387075912</v>
       </c>
       <c r="D4">
-        <v>0.07402400667483278</v>
+        <v>0.2730514608949051</v>
       </c>
       <c r="E4">
-        <v>0.3428124898187264</v>
+        <v>1.356603117254537</v>
       </c>
       <c r="F4">
-        <v>1.912316711634247</v>
+        <v>5.69937582916296</v>
       </c>
       <c r="G4">
-        <v>2.100249222090611</v>
+        <v>6.913810774261663</v>
       </c>
       <c r="H4">
-        <v>1.330500229916026</v>
+        <v>3.308036719111783</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03995402274648541</v>
+        <v>0.1313866347396697</v>
       </c>
       <c r="D5">
-        <v>0.07119808863352262</v>
+        <v>0.2589740262936573</v>
       </c>
       <c r="E5">
-        <v>0.3287567351206917</v>
+        <v>1.285180837645669</v>
       </c>
       <c r="F5">
-        <v>1.855343698008113</v>
+        <v>5.41640048247578</v>
       </c>
       <c r="G5">
-        <v>2.02910102924011</v>
+        <v>6.567720490010629</v>
       </c>
       <c r="H5">
-        <v>1.299455806609899</v>
+        <v>3.146034036310539</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03971322982907566</v>
+        <v>0.1302634292936489</v>
       </c>
       <c r="D6">
-        <v>0.07072966030467853</v>
+        <v>0.25666643849857</v>
       </c>
       <c r="E6">
-        <v>0.3264262411716601</v>
+        <v>1.273487696358742</v>
       </c>
       <c r="F6">
-        <v>1.845908133199885</v>
+        <v>5.369949113613956</v>
       </c>
       <c r="G6">
-        <v>2.017312013859168</v>
+        <v>6.510906626696624</v>
       </c>
       <c r="H6">
-        <v>1.294319414592678</v>
+        <v>3.119451668442423</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04138725633642082</v>
+        <v>0.1381298093368315</v>
       </c>
       <c r="D7">
-        <v>0.07398584006757858</v>
+        <v>0.2728595107487024</v>
       </c>
       <c r="E7">
-        <v>0.3426226931926806</v>
+        <v>1.355628221599517</v>
       </c>
       <c r="F7">
-        <v>1.911546679905854</v>
+        <v>5.695522049674395</v>
       </c>
       <c r="G7">
-        <v>2.099287993742507</v>
+        <v>6.90909756385912</v>
       </c>
       <c r="H7">
-        <v>1.330080305065678</v>
+        <v>3.305829686466041</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.048843750634461</v>
+        <v>0.1749884425046844</v>
       </c>
       <c r="D8">
-        <v>0.08848133144697101</v>
+        <v>0.3497678933747608</v>
       </c>
       <c r="E8">
-        <v>0.4146432302580934</v>
+        <v>1.748657329297259</v>
       </c>
       <c r="F8">
-        <v>2.204946202125285</v>
+        <v>7.228795062564927</v>
       </c>
       <c r="G8">
-        <v>2.46486445801628</v>
+        <v>8.784259182292772</v>
       </c>
       <c r="H8">
-        <v>1.490663432560325</v>
+        <v>4.18542542932903</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06375108278027142</v>
+        <v>0.2611180137482876</v>
       </c>
       <c r="D9">
-        <v>0.117447993817521</v>
+        <v>0.5371928614723771</v>
       </c>
       <c r="E9">
-        <v>0.5583251547865729</v>
+        <v>2.730680537778369</v>
       </c>
       <c r="F9">
-        <v>2.79532394359515</v>
+        <v>10.86485668809587</v>
       </c>
       <c r="G9">
-        <v>3.197443359351439</v>
+        <v>13.23418239251339</v>
       </c>
       <c r="H9">
-        <v>1.816439590657353</v>
+        <v>6.281527845297774</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07491319404149976</v>
+        <v>0.3456838580959385</v>
       </c>
       <c r="D10">
-        <v>0.1391449197427335</v>
+        <v>0.7351308135607439</v>
       </c>
       <c r="E10">
-        <v>0.6658540739310013</v>
+        <v>3.819470607789597</v>
       </c>
       <c r="F10">
-        <v>3.239773343520341</v>
+        <v>14.52539878896567</v>
       </c>
       <c r="G10">
-        <v>3.747132436533263</v>
+        <v>17.72492545868789</v>
       </c>
       <c r="H10">
-        <v>2.063304805149755</v>
+        <v>8.404622702938411</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08004481728909241</v>
+        <v>0.3980420118976724</v>
       </c>
       <c r="D11">
-        <v>0.1491249759868936</v>
+        <v>0.8676665612976535</v>
       </c>
       <c r="E11">
-        <v>0.7153062832119872</v>
+        <v>4.592486907723469</v>
       </c>
       <c r="F11">
-        <v>3.444639034242755</v>
+        <v>16.85601590184092</v>
       </c>
       <c r="G11">
-        <v>4.00012231043263</v>
+        <v>20.59348190551992</v>
       </c>
       <c r="H11">
-        <v>2.177445210765768</v>
+        <v>9.763363247380823</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0819964595482503</v>
+        <v>0.4231354611998484</v>
       </c>
       <c r="D12">
-        <v>0.1529216098639381</v>
+        <v>0.9349635266791836</v>
       </c>
       <c r="E12">
-        <v>0.7341187954332895</v>
+        <v>5.003785645136787</v>
       </c>
       <c r="F12">
-        <v>3.522631409936196</v>
+        <v>17.99756797957912</v>
       </c>
       <c r="G12">
-        <v>4.096380848006049</v>
+        <v>22.00218203121057</v>
       </c>
       <c r="H12">
-        <v>2.22094871134567</v>
+        <v>10.43111721448639</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08157575385052951</v>
+        <v>0.4173358787649164</v>
       </c>
       <c r="D13">
-        <v>0.1521031369487673</v>
+        <v>0.9191510461840551</v>
       </c>
       <c r="E13">
-        <v>0.73006321326136</v>
+        <v>4.905805274816231</v>
       </c>
       <c r="F13">
-        <v>3.505815472973211</v>
+        <v>17.73203521504934</v>
       </c>
       <c r="G13">
-        <v>4.075628964692498</v>
+        <v>21.6742595288714</v>
       </c>
       <c r="H13">
-        <v>2.211566688482378</v>
+        <v>10.27565162457392</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08020520773034434</v>
+        <v>0.3999515256682997</v>
       </c>
       <c r="D14">
-        <v>0.1494369692640305</v>
+        <v>0.8726898726374657</v>
       </c>
       <c r="E14">
-        <v>0.7168522236950423</v>
+        <v>4.62269530927361</v>
       </c>
       <c r="F14">
-        <v>3.451047047003783</v>
+        <v>16.94224411874649</v>
       </c>
       <c r="G14">
-        <v>4.008032199225568</v>
+        <v>20.69979558221996</v>
       </c>
       <c r="H14">
-        <v>2.181018542013135</v>
+        <v>9.813748492133584</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07936682344221424</v>
+        <v>0.3902093851947797</v>
       </c>
       <c r="D15">
-        <v>0.147806179020904</v>
+        <v>0.8472159673239332</v>
       </c>
       <c r="E15">
-        <v>0.708771583954217</v>
+        <v>4.47025973268903</v>
       </c>
       <c r="F15">
-        <v>3.417554602524831</v>
+        <v>16.50332312364208</v>
       </c>
       <c r="G15">
-        <v>3.96668777174574</v>
+        <v>20.15878349670993</v>
       </c>
       <c r="H15">
-        <v>2.162344012835035</v>
+        <v>9.557364994811905</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07457897080197995</v>
+        <v>0.3426998232094007</v>
       </c>
       <c r="D16">
-        <v>0.1384950473253639</v>
+        <v>0.7278435312695422</v>
       </c>
       <c r="E16">
-        <v>0.6626338051535754</v>
+        <v>3.778150520437066</v>
       </c>
       <c r="F16">
-        <v>3.226441281925361</v>
+        <v>14.39428815338991</v>
       </c>
       <c r="G16">
-        <v>3.73066093909091</v>
+        <v>17.56380450096214</v>
       </c>
       <c r="H16">
-        <v>2.055883877073825</v>
+        <v>8.32835464875194</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07165604684527693</v>
+        <v>0.3181015662378712</v>
       </c>
       <c r="D17">
-        <v>0.1328122544848327</v>
+        <v>0.6687008749171923</v>
       </c>
       <c r="E17">
-        <v>0.6344734356464699</v>
+        <v>3.446655229063182</v>
       </c>
       <c r="F17">
-        <v>3.109906547216184</v>
+        <v>13.31946438139778</v>
       </c>
       <c r="G17">
-        <v>3.586641909769185</v>
+        <v>16.24382005051388</v>
       </c>
       <c r="H17">
-        <v>1.991056810500083</v>
+        <v>7.703764019330833</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0699798932133433</v>
+        <v>0.3050143135126859</v>
       </c>
       <c r="D18">
-        <v>0.1295539192347519</v>
+        <v>0.6378613649227702</v>
       </c>
       <c r="E18">
-        <v>0.6183263086667239</v>
+        <v>3.276318575078221</v>
       </c>
       <c r="F18">
-        <v>3.043129669826271</v>
+        <v>12.7516340812505</v>
       </c>
       <c r="G18">
-        <v>3.504079926245197</v>
+        <v>15.54704098242581</v>
       </c>
       <c r="H18">
-        <v>1.95394218506118</v>
+        <v>7.374245859443079</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06941322161699759</v>
+        <v>0.3007313759136423</v>
       </c>
       <c r="D19">
-        <v>0.1284524172932606</v>
+        <v>0.6278565927001125</v>
       </c>
       <c r="E19">
-        <v>0.6128674879011555</v>
+        <v>3.221401727223778</v>
       </c>
       <c r="F19">
-        <v>3.020562399879083</v>
+        <v>12.56636860820151</v>
       </c>
       <c r="G19">
-        <v>3.476171866273489</v>
+        <v>15.31978163825073</v>
       </c>
       <c r="H19">
-        <v>1.941404895010123</v>
+        <v>7.26680105158141</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0719666713361562</v>
+        <v>0.3206012647581105</v>
       </c>
       <c r="D20">
-        <v>0.1334161246627446</v>
+        <v>0.6746388619930599</v>
       </c>
       <c r="E20">
-        <v>0.63746592009241</v>
+        <v>3.479642606728731</v>
       </c>
       <c r="F20">
-        <v>3.122285708113651</v>
+        <v>13.42822632158251</v>
       </c>
       <c r="G20">
-        <v>3.601944379440454</v>
+        <v>16.37732370930161</v>
       </c>
       <c r="H20">
-        <v>1.997939824818161</v>
+        <v>7.76691522053909</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08060753682967459</v>
+        <v>0.4048466400159327</v>
       </c>
       <c r="D21">
-        <v>0.1502196021049826</v>
+        <v>0.885637313068429</v>
       </c>
       <c r="E21">
-        <v>0.7207302043796489</v>
+        <v>4.700906088006462</v>
       </c>
       <c r="F21">
-        <v>3.467122389459746</v>
+        <v>17.16375027133279</v>
       </c>
       <c r="G21">
-        <v>4.027874326515303</v>
+        <v>20.97296542569831</v>
       </c>
       <c r="H21">
-        <v>2.189983512906053</v>
+        <v>9.943219625902714</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08630417082480335</v>
+        <v>0.4048466400159327</v>
       </c>
       <c r="D22">
-        <v>0.1613038644017593</v>
+        <v>0.885637313068429</v>
       </c>
       <c r="E22">
-        <v>0.7756540621339951</v>
+        <v>4.700906088006462</v>
       </c>
       <c r="F22">
-        <v>3.694921204907018</v>
+        <v>17.16375027133279</v>
       </c>
       <c r="G22">
-        <v>4.308923702799973</v>
+        <v>20.97296542569831</v>
       </c>
       <c r="H22">
-        <v>2.317141151680062</v>
+        <v>9.943219625902714</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08325903397782497</v>
+        <v>0.4048466400159327</v>
       </c>
       <c r="D23">
-        <v>0.1553780927343666</v>
+        <v>0.885637313068429</v>
       </c>
       <c r="E23">
-        <v>0.7462908648888202</v>
+        <v>4.700906088006462</v>
       </c>
       <c r="F23">
-        <v>3.573108878531798</v>
+        <v>17.16375027133279</v>
       </c>
       <c r="G23">
-        <v>4.158665295903404</v>
+        <v>20.97296542569831</v>
       </c>
       <c r="H23">
-        <v>2.249118535815228</v>
+        <v>9.943219625902714</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07182622473997924</v>
+        <v>0.4048466400159327</v>
       </c>
       <c r="D24">
-        <v>0.1331430877323783</v>
+        <v>0.885637313068429</v>
       </c>
       <c r="E24">
-        <v>0.6361128857112135</v>
+        <v>4.700906088006462</v>
       </c>
       <c r="F24">
-        <v>3.116688404811185</v>
+        <v>17.16375027133279</v>
       </c>
       <c r="G24">
-        <v>3.595025398961468</v>
+        <v>20.97296542569831</v>
       </c>
       <c r="H24">
-        <v>1.994827531493968</v>
+        <v>9.943219625902714</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05968409346859005</v>
+        <v>0.4048466400159327</v>
       </c>
       <c r="D25">
-        <v>0.1095451899372506</v>
+        <v>0.885637313068429</v>
       </c>
       <c r="E25">
-        <v>0.5191453392989445</v>
+        <v>4.700906088006462</v>
       </c>
       <c r="F25">
-        <v>2.633846868522511</v>
+        <v>17.16375027133279</v>
       </c>
       <c r="G25">
-        <v>2.997389641847974</v>
+        <v>20.97296542569831</v>
       </c>
       <c r="H25">
-        <v>1.727054494182937</v>
+        <v>9.943219625902714</v>
       </c>
       <c r="I25">
         <v>0</v>
